--- a/src/test/java/suites/forum.xlsx
+++ b/src/test/java/suites/forum.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="76">
   <si>
     <t>TCID</t>
   </si>
@@ -241,6 +241,12 @@
   </si>
   <si>
     <t>environment</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -290,20 +296,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -665,7 +676,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -847,744 +858,737 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R22"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="37.5546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="53.88671875" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.88671875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="35.21875" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.5546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.44140625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.6640625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="37.5546875" style="8" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="53.88671875" style="9" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.88671875" style="7" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27" style="7" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="35.21875" style="7" customWidth="1" collapsed="1"/>
+    <col min="15" max="17" width="8.88671875" style="7"/>
+    <col min="18" max="18" width="10.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="S1" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="G2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="72" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" spans="1:19" ht="72" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="D6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="72" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="G6" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="D7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="G7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="72" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="8" spans="1:19" ht="72" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="D8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="G8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="D9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G9" t="s">
-        <v>16</v>
-      </c>
-      <c r="O9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="P9" s="5" t="s">
+      <c r="G9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Q9" s="5" t="s">
+      <c r="Q9" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="72" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="10" spans="1:19" ht="72" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="B10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="D10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="O10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="P10" s="5" t="s">
+      <c r="O10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Q10" s="5" t="s">
+      <c r="Q10" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="72" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="D11" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="72" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="D12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="G12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="72" x14ac:dyDescent="0.3">
-      <c r="A13">
+    <row r="13" spans="1:19" ht="72" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="2" t="s">
+      <c r="D13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M13" s="2" t="s">
+      <c r="G13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="P13" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q13" t="s">
+      <c r="P13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="R13" t="s">
+      <c r="R13" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="72" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row r="14" spans="1:19" ht="72" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="B14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="D14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="M14" s="2" t="s">
+      <c r="G14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="O14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P14" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q14" t="s">
+      <c r="O14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="R14" t="s">
+      <c r="R14" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A15">
+    <row r="15" spans="1:19" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="B15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="2" t="s">
+      <c r="D15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F15"/>
-      <c r="G15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" t="s">
-        <v>16</v>
-      </c>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2" t="s">
+      <c r="F15" s="7"/>
+      <c r="G15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="O15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q15" t="s">
+      <c r="O15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="R15" t="s">
+      <c r="R15" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="72" x14ac:dyDescent="0.3">
-      <c r="A16">
+    <row r="16" spans="1:19" ht="72" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="B16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="2" t="s">
+      <c r="D16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H16" t="s">
-        <v>16</v>
-      </c>
-      <c r="M16" t="s">
+      <c r="G16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M16" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="O16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P16" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q16" t="s">
+      <c r="O16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="R16" t="s">
+      <c r="R16" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="72" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="A17" s="7">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="2" t="s">
+      <c r="D17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="G17" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="M17" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A18">
+      <c r="A18" s="7">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="D18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" t="s">
+      <c r="F18" s="8"/>
+      <c r="G18" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2" t="s">
+      <c r="M18" s="8"/>
+      <c r="N18" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:18" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A19">
+      <c r="A19" s="7">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="5" t="s">
+      <c r="B19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="2" t="s">
+      <c r="D19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="5" t="s">
+      <c r="F19" s="8"/>
+      <c r="G19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J19" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="K19" s="5" t="s">
+      <c r="K19" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L19" s="5"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2" t="s">
+      <c r="M19" s="8"/>
+      <c r="N19" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="A20" s="7">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="5" t="s">
+      <c r="B20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="2" t="s">
+      <c r="D20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I20" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
     </row>
     <row r="21" spans="1:18" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="A21" s="7">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="B21" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="2" t="s">
+      <c r="D21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5" t="s">
+      <c r="F21" s="7"/>
+      <c r="G21" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="J21" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="2" t="s">
+      <c r="N21" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="O21" s="5"/>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="5"/>
-      <c r="R21" s="5"/>
     </row>
     <row r="22" spans="1:18" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="A22" s="7">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="2" t="s">
+      <c r="D22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2" t="s">
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="P22" s="2" t="s">
+      <c r="P22" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="Q22" s="2" t="s">
+      <c r="Q22" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="R22" s="2"/>
+      <c r="R22" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
